--- a/Documents/Documents/Inventaire.xlsx
+++ b/Documents/Documents/Inventaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Inventaire 1</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Boomerang</t>
   </si>
   <si>
-    <t>Bouclier</t>
-  </si>
-  <si>
     <t>Arc du héros</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Arc de lumière</t>
   </si>
   <si>
-    <t>Arc d'argent</t>
-  </si>
-  <si>
     <t>Bombe</t>
   </si>
   <si>
@@ -205,6 +199,18 @@
   </si>
   <si>
     <t>Vin</t>
+  </si>
+  <si>
+    <t>Bouclier du héros</t>
+  </si>
+  <si>
+    <t>Bouclier d'Hylia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc d'argent </t>
+  </si>
+  <si>
+    <t>Bouclier miroir</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,9 +763,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -768,23 +775,23 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -792,22 +799,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -815,22 +822,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
@@ -838,22 +845,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickTop="1">
@@ -863,10 +870,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -879,22 +886,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -902,19 +909,20 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -922,17 +930,20 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
@@ -940,24 +951,26 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickTop="1"/>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -968,22 +981,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -991,22 +1004,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1014,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
